--- a/Customers Bills/main_sheet.xlsx
+++ b/Customers Bills/main_sheet.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +25,28 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +61,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,336 +431,122 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7.199999999999999" customWidth="1" min="1" max="1"/>
+    <col width="7.199999999999999" customWidth="1" min="2" max="2"/>
+    <col width="13.2" customWidth="1" min="3" max="3"/>
+    <col width="21.6" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="16.8" customWidth="1" min="6" max="6"/>
+    <col width="8.4" customWidth="1" min="7" max="7"/>
+    <col width="14.4" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Unique ID</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Transaction Type</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Transaction Description</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Amount (EGP)</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Logged by:</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2223232</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>14/06/24</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>23:40</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1406242340</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Maram's Bill</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>300</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>14/06/24</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>23:41</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1406242341</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Maram's Bill</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>300</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>14/06/24</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>23:41</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1406242341</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Sara Ibrahim's Bill</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>300</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>14/06/24</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>23:41</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1406242341</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Fatima Ahmed's Bill</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>300</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>14/06/24</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>23:44</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1406242344</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Mohamed Ali's Bill</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>14/06/24</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>23:44</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1406242344</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Ahmed Hassan's Bill</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1650</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>14/06/24</t>
+          <t>15/06/24</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>23:46</t>
+          <t>16:46</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1406242346</t>
+          <t>1506241646</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -756,7 +560,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -765,24 +569,24 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>asdas</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>14/06/24</t>
+          <t>15/06/24</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23:46</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1406242346</t>
+          <t>1506241647</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -792,11 +596,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Yara Mahmoud's Bill</t>
+          <t>NEW TEST's Bill</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -805,127 +609,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>User</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>14/06/24</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>23:50</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1406242350</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Fatima Ahmed's Bill</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>530</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>test1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>14/06/24</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>23:57</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1406242357</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Yara Mahmoud's Bill</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6902.5</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>test1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>00:30</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1506240030</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NEW TEST's Bill</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>300</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>test1</t>
+          <t>asdas</t>
         </is>
       </c>
     </row>

--- a/Customers Bills/main_sheet.xlsx
+++ b/Customers Bills/main_sheet.xlsx
@@ -29,24 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ADD8E6"/>
-        <bgColor rgb="00ADD8E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="00FFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,8 +52,12 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,9 +431,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="7.199999999999999" customWidth="1" min="1" max="1"/>
-    <col width="7.199999999999999" customWidth="1" min="2" max="2"/>
-    <col width="13.2" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="16.8" customWidth="1" min="3" max="3"/>
     <col width="21.6" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
     <col width="16.8" customWidth="1" min="6" max="6"/>
@@ -450,164 +442,562 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Unique ID</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Transaction Type</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Transaction Description</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Amount (EGP)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Logged by:</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>15/06/24</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>17:55:13</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>150624175513</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Yara Mahmoud's Bill</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>800</v>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>15/06/24</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>17:56:31</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>150624175631</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Yara Mahmoud's Bill</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>800</v>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>15/06/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>17:56:35</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>150624175635</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Yara Mahmoud's Bill</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>800</v>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n"/>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>15/06/24</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>17:57:26</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>150624175726</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Yara Mahmoud's Bill</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>15/06/24</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>17:58:00</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>150624175800</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>Yara Mahmoud's Bill</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1340</v>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>15/06/24</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>17:58:04</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>150624175804</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Yara Mahmoud's Bill</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1340</v>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>15/06/24</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>17:58:08</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>150624175808</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Yara Mahmoud's Bill</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>1340</v>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>16:46</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1506241646</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Sara Ibrahim's Bill</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>330</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>15/06/24</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>17:58:10</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>150624175810</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Yara Mahmoud's Bill</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1340</v>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>asdas</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>16:47</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1506241647</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NEW TEST's Bill</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>800</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>15/06/24</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>17:58:13</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>150624175813</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>Yara Mahmoud's Bill</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1340</v>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>15/06/24</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>17:58:44</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>150624175844</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Yara Mahmoud's Bill</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>990</v>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>15/06/24</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>18:00:34</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>150624180034</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Yara Mahmoud's Bill</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>370</v>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>15/06/24</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>18:01:07</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>150624180107</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Yara Mahmoud's Bill</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>15/06/24</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>18:01:11</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>150624180111</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Yara Mahmoud's Bill</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>asdas</t>
         </is>

--- a/Customers Bills/main_sheet.xlsx
+++ b/Customers Bills/main_sheet.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,8 +437,8 @@
     <col width="21.6" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
     <col width="16.8" customWidth="1" min="6" max="6"/>
-    <col width="8.4" customWidth="1" min="7" max="7"/>
-    <col width="14.4" customWidth="1" min="8" max="8"/>
+    <col width="14.4" customWidth="1" min="7" max="7"/>
+    <col width="8.4" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -474,12 +474,12 @@
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
+          <t>Logged by:</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
           <t>Notes</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Logged by:</t>
         </is>
       </c>
     </row>
@@ -491,12 +491,12 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>17:55:13</t>
+          <t>18:04:58</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>150624175513</t>
+          <t>150624180458</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -510,16 +510,16 @@
         </is>
       </c>
       <c r="F2" s="3" t="n">
-        <v>800</v>
+        <v>690</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>hassan1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Notes</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>asdas</t>
         </is>
       </c>
     </row>
@@ -531,12 +531,12 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>17:56:31</t>
+          <t>18:05:27</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>150624175631</t>
+          <t>150624180527</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="F3" s="3" t="n">
-        <v>800</v>
+        <v>690</v>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
+          <t>hassan1</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
           <t>Notes</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>asdas</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>17:56:35</t>
+          <t>18:05:30</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>150624175635</t>
+          <t>150624180530</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -590,16 +590,16 @@
         </is>
       </c>
       <c r="F4" s="3" t="n">
-        <v>800</v>
+        <v>690</v>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
+          <t>hassan1</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
           <t>Notes</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>asdas</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>17:57:26</t>
+          <t>18:15:28</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>150624175726</t>
+          <t>150624181528</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -626,20 +626,20 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>Yara Mahmoud's Bill</t>
+          <t>Fatima Ahmed's Bill</t>
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>1600</v>
+        <v>830</v>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
           <t>Notes</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>asdas</t>
         </is>
       </c>
     </row>
@@ -651,12 +651,12 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>17:58:00</t>
+          <t>18:16:22</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>150624175800</t>
+          <t>150624181622</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -666,340 +666,60 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Yara Mahmoud's Bill</t>
+          <t>Ahmed Hassan's Bill</t>
         </is>
       </c>
       <c r="F6" s="3" t="n">
-        <v>1340</v>
+        <v>500</v>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
           <t>Notes</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>asdas</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>15/06/24</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>17:58:04</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>150624175804</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18:17:36</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>150624181736</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>Yara Mahmoud's Bill</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>1340</v>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ahmed Hassan's Bill</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>800</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Notes</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>17:58:08</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>150624175808</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>Yara Mahmoud's Bill</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>1340</v>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>17:58:10</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>150624175810</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>Yara Mahmoud's Bill</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>1340</v>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>17:58:13</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>150624175813</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>Yara Mahmoud's Bill</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>1340</v>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>17:58:44</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>150624175844</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Yara Mahmoud's Bill</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>990</v>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>18:00:34</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>150624180034</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>Yara Mahmoud's Bill</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>370</v>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>18:01:07</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>150624180107</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>Yara Mahmoud's Bill</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>1150</v>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>18:01:11</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>150624180111</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Yara Mahmoud's Bill</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1150</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>asdas</t>
         </is>
       </c>
     </row>

--- a/Customers Bills/main_sheet.xlsx
+++ b/Customers Bills/main_sheet.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,37 +491,15 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>18:04:58</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>150624180458</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Yara Mahmoud's Bill</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>690</v>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>hassan1</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
+          <t>15/06/24</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr"/>
+      <c r="E2" s="3" t="inlineStr"/>
+      <c r="F2" s="3" t="inlineStr"/>
+      <c r="G2" s="3" t="inlineStr"/>
+      <c r="H2" s="3" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -531,37 +509,15 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>18:05:27</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>150624180527</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Yara Mahmoud's Bill</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>690</v>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>hassan1</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
+          <t>15/06/24</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -571,37 +527,15 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>18:05:30</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>150624180530</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>Yara Mahmoud's Bill</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>690</v>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>hassan1</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
+          <t>15/06/24</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr"/>
+      <c r="G4" s="3" t="inlineStr"/>
+      <c r="H4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -611,37 +545,15 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>18:15:28</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>150624181528</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>Fatima Ahmed's Bill</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>830</v>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
+          <t>15/06/24</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr"/>
+      <c r="H5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -651,77 +563,15 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>18:16:22</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>150624181622</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>Ahmed Hassan's Bill</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>18:17:36</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>150624181736</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Ahmed Hassan's Bill</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>800</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
+          <t>15/06/24</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr"/>
+      <c r="G6" s="3" t="inlineStr"/>
+      <c r="H6" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Customers Bills/main_sheet.xlsx
+++ b/Customers Bills/main_sheet.xlsx
@@ -49,13 +49,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,9 +428,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="16.8" customWidth="1" min="3" max="3"/>
+    <col width="7.199999999999999" customWidth="1" min="1" max="1"/>
+    <col width="7.199999999999999" customWidth="1" min="2" max="2"/>
+    <col width="13.2" customWidth="1" min="3" max="3"/>
     <col width="21.6" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
     <col width="16.8" customWidth="1" min="6" max="6"/>
@@ -484,94 +481,44 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>15/06/24</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr"/>
-      <c r="E2" s="3" t="inlineStr"/>
-      <c r="F2" s="3" t="inlineStr"/>
-      <c r="G2" s="3" t="inlineStr"/>
-      <c r="H2" s="3" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr"/>
-      <c r="F3" s="3" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr"/>
-      <c r="G4" s="3" t="inlineStr"/>
-      <c r="H4" s="3" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr"/>
-      <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>15/06/24</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr"/>
-      <c r="E6" s="3" t="inlineStr"/>
-      <c r="F6" s="3" t="inlineStr"/>
-      <c r="G6" s="3" t="inlineStr"/>
-      <c r="H6" s="3" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>21:06:18</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>150624210618</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Yara Mahmoud's Bill</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1090</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>hassan1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Customers Bills/main_sheet.xlsx
+++ b/Customers Bills/main_sheet.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,206 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>20/06/24</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>15:12:45</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>200624151245</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Yara Mahmoud's Bill</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>20/06/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>15:19:47</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>200624151947</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Fatima Ahmed's Bill</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>20/06/24</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>15:20:17</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>200624152017</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Zein's Bill</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>20/06/24</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>15:33:33</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>200624153333</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>dfhnsfdh's Bill</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20/06/24</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15:33:46</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>200624153346</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Maram's Bill</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
